--- a/xlsx/贸易_intext.xlsx
+++ b/xlsx/贸易_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>絲路</t>
+    <t>丝路</t>
   </si>
   <si>
     <t>政策_政策_加州_贸易</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD</t>
   </si>
   <si>
-    <t>商業</t>
+    <t>商业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2</t>
   </si>
   <si>
-    <t>金錢</t>
+    <t>金钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E8%AF%81</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%94%E7%A5%A8</t>
   </si>
   <si>
-    <t>鈔票</t>
+    <t>钞票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E9%A8%AB</t>
   </si>
   <si>
-    <t>張騫</t>
+    <t>张骞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E8%B6%85</t>
@@ -113,19 +113,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%96%E6%9C%A8%E5%85%92</t>
   </si>
   <si>
-    <t>帖木兒</t>
+    <t>帖木儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF</t>
   </si>
   <si>
-    <t>陝西</t>
+    <t>陕西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%B1%87</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E5%AD%98%E5%BA%95</t>
   </si>
   <si>
-    <t>外匯存底</t>
+    <t>外汇存底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際貿易年表</t>
+    <t>国际贸易年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E8%B4%B8%E6%98%93</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%A3%81%E5%A3%98</t>
   </si>
   <si>
-    <t>貿易壁壘</t>
+    <t>贸易壁垒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E8%B4%B8%E6%98%93%E5%92%8C%E5%8F%91%E5%B1%95%E4%BC%9A%E8%AE%AE</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%82%8A%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>雙邊貿易</t>
+    <t>双边贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -317,13 +317,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -371,13 +371,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -449,19 +449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -473,25 +473,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -581,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
+    <t>计量经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -605,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
@@ -623,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -635,7 +635,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
+    <t>数理经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
@@ -647,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
 </sst>
 </file>
